--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1109,11 +1109,22 @@
       <c r="A58" s="7" t="n">
         <v>45419</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="4" t="n">
         <v>0.8262088297126839</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>2.888315839961677</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8002450980392157</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.562480337989953</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1120,11 +1120,33 @@
       <c r="A59" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="4" t="n">
         <v>0.8002450980392157</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4" t="n">
         <v>1.562480337989953</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>0.9321646341463414</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>2.850634210127275</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.7762284196547145</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.4076400003617</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1142,11 +1142,22 @@
       <c r="A61" s="7" t="n">
         <v>45422</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="4" t="n">
         <v>0.7762284196547145</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>2.4076400003617</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.008746355685131</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.48480168604016</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1153,11 +1153,22 @@
       <c r="A62" s="7" t="n">
         <v>45426</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="4" t="n">
         <v>2.008746355685131</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>4.48480168604016</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.107480378023386</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18.16014453041548</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1164,11 +1164,22 @@
       <c r="A63" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="4" t="n">
         <v>1.107480378023386</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>18.16014453041548</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.629508196721312</v>
+      </c>
+      <c r="C64" t="n">
+        <v>23.06500859308989</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1175,11 +1175,33 @@
       <c r="A64" s="7" t="n">
         <v>45429</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="4" t="n">
         <v>2.629508196721312</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4" t="n">
         <v>23.06500859308989</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>2.629508196721312</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>23.06500859308989</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7978956597983341</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.975908278745922</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1197,11 +1197,22 @@
       <c r="A66" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="4" t="n">
         <v>0.7978956597983341</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>1.975908278745922</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6319612590799032</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.718877993615217</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1208,11 +1208,22 @@
       <c r="A67" s="7" t="n">
         <v>45433</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="4" t="n">
         <v>0.6319612590799032</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>1.718877993615217</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9609381811840614</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.526764856104919</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1219,11 +1219,22 @@
       <c r="A68" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="4" t="n">
         <v>0.9609381811840614</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>1.526764856104919</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9685311420300682</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.178237043419069</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1230,11 +1230,22 @@
       <c r="A69" s="7" t="n">
         <v>45435</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="4" t="n">
         <v>0.9685311420300682</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>2.178237043419069</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8436857260386672</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.152378387656785</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1241,11 +1241,22 @@
       <c r="A70" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="4" t="n">
         <v>0.8436857260386672</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>2.152378387656785</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.205858421480879</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.57319236087831</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1252,11 +1252,22 @@
       <c r="A71" s="7" t="n">
         <v>45439</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="4" t="n">
         <v>1.205858421480879</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>1.57319236087831</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.135605006954103</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.720559867665188</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1263,11 +1263,22 @@
       <c r="A72" s="7" t="n">
         <v>45440</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="4" t="n">
         <v>1.135605006954103</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>1.720559867665188</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9368421052631579</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.493791857310076</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1274,11 +1274,22 @@
       <c r="A73" s="7" t="n">
         <v>45441</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="4" t="n">
         <v>0.9368421052631579</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>1.493791857310076</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7086903304773562</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.857355843676669</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1285,11 +1285,22 @@
       <c r="A74" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="4" t="n">
         <v>0.7086903304773562</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="4" t="n">
         <v>1.857355843676669</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6537553141237601</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.915479063281348</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1296,11 +1296,22 @@
       <c r="A75" s="7" t="n">
         <v>45446</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="4" t="n">
         <v>0.6537553141237601</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4" t="n">
         <v>1.915479063281348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.024785027819929</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.806526351267649</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1307,11 +1307,22 @@
       <c r="A76" s="7" t="n">
         <v>45447</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="4" t="n">
         <v>1.024785027819929</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>1.806526351267649</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.241610738255034</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.890435188244669</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1318,11 +1318,22 @@
       <c r="A77" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="4" t="n">
         <v>1.241610738255034</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4" t="n">
         <v>1.890435188244669</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.215394566623545</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.262855366182116</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1329,11 +1329,22 @@
       <c r="A78" s="7" t="n">
         <v>45450</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="4" t="n">
         <v>1.215394566623545</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4" t="n">
         <v>0.262855366182116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.204319194696348</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.12560911464693</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1340,11 +1340,22 @@
       <c r="A79" s="7" t="n">
         <v>45453</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="4" t="n">
         <v>1.204319194696348</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4" t="n">
         <v>1.12560911464693</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.0905374468549</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.482192770020384</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1351,11 +1351,22 @@
       <c r="A80" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="4" t="n">
         <v>1.0905374468549</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4" t="n">
         <v>1.482192770020384</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8401423843127459</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6195896091606595</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1362,11 +1362,22 @@
       <c r="A81" s="7" t="n">
         <v>45455</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="4" t="n">
         <v>0.8401423843127459</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4" t="n">
         <v>0.6195896091606595</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8999552972731336</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.606590126241623</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1373,11 +1373,22 @@
       <c r="A82" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="4" t="n">
         <v>0.8999552972731336</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4" t="n">
         <v>1.606590126241623</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.095008798732282</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9831152829989188</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1384,11 +1384,22 @@
       <c r="A83" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="4" t="n">
         <v>1.095008798732282</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4" t="n">
         <v>0.9831152829989188</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7520241594223611</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5.530871854518725</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1395,11 +1395,22 @@
       <c r="A84" s="7" t="n">
         <v>45460</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="4" t="n">
         <v>0.7520241594223611</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4" t="n">
         <v>5.530871854518725</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5008311170212766</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.068899419156423</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1406,11 +1406,22 @@
       <c r="A85" s="7" t="n">
         <v>45461</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="4" t="n">
         <v>0.5008311170212766</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4" t="n">
         <v>3.068899419156423</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.29833690439751</v>
+      </c>
+      <c r="C86" t="n">
+        <v>16.2320527778548</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1417,11 +1417,22 @@
       <c r="A86" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="4" t="n">
         <v>1.29833690439751</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4" t="n">
         <v>16.2320527778548</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.107547409952908</v>
+      </c>
+      <c r="C87" t="n">
+        <v>28.26695200354646</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1428,11 +1428,33 @@
       <c r="A87" s="7" t="n">
         <v>45463</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="4" t="n">
         <v>1.107547409952908</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="4" t="n">
         <v>28.26695200354646</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>0.5795806118941217</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>11.3574078479206</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.146852220013254</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7.732070051131075</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1450,11 +1450,22 @@
       <c r="A89" s="7" t="n">
         <v>45464</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="4" t="n">
         <v>1.146852220013254</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4" t="n">
         <v>7.732070051131075</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.724622030237581</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.964196274903593</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1461,11 +1461,22 @@
       <c r="A90" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="4" t="n">
         <v>0.724622030237581</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4" t="n">
         <v>2.964196274903593</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8292276964047937</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.875748568019191</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1472,11 +1472,22 @@
       <c r="A91" s="7" t="n">
         <v>45468</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="4" t="n">
         <v>0.8292276964047937</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4" t="n">
         <v>2.875748568019191</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9042179261862917</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.548831217699977</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1483,11 +1483,22 @@
       <c r="A92" s="7" t="n">
         <v>45469</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="4" t="n">
         <v>0.9042179261862917</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4" t="n">
         <v>2.548831217699977</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9378552482000758</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.878339676993405</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1494,11 +1494,22 @@
       <c r="A93" s="7" t="n">
         <v>45470</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="4" t="n">
         <v>0.9378552482000758</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4" t="n">
         <v>1.878339676993405</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.082084690553746</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.934594563383754</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1505,11 +1505,22 @@
       <c r="A94" s="7" t="n">
         <v>45471</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="4" t="n">
         <v>1.082084690553746</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4" t="n">
         <v>2.934594563383754</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9487341772151898</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.15132394525414</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1516,11 +1516,22 @@
       <c r="A95" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="4" t="n">
         <v>0.9487341772151898</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4" t="n">
         <v>2.15132394525414</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3776390127862028</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.586475125598706</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1527,11 +1527,22 @@
       <c r="A96" s="7" t="n">
         <v>45475</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="4" t="n">
         <v>0.3776390127862028</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>1.586475125598706</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.2630972941853771</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.039752509622191</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1538,11 +1538,22 @@
       <c r="A97" s="7" t="n">
         <v>45476</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="4" t="n">
         <v>0.2630972941853771</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4" t="n">
         <v>1.039752509622191</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.489588377723971</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.136719831440717</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1549,11 +1549,22 @@
       <c r="A98" s="7" t="n">
         <v>45477</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="4" t="n">
         <v>0.489588377723971</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4" t="n">
         <v>2.136719831440717</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4574406485234511</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.195814130804235</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1560,11 +1560,22 @@
       <c r="A99" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="4" t="n">
         <v>0.4574406485234511</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4" t="n">
         <v>1.195814130804235</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9422624093435057</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.159730612923814</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1571,11 +1571,22 @@
       <c r="A100" s="7" t="n">
         <v>45481</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="4" t="n">
         <v>0.9422624093435057</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4" t="n">
         <v>1.159730612923814</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4689295039164491</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.268082852084093</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1582,11 +1582,22 @@
       <c r="A101" s="7" t="n">
         <v>45482</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="4" t="n">
         <v>0.4689295039164491</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4" t="n">
         <v>1.268082852084093</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9716348633316142</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.713750141439189</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1593,11 +1593,22 @@
       <c r="A102" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="4" t="n">
         <v>0.9716348633316142</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4" t="n">
         <v>1.713750141439189</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.537590113285273</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.277010522178282</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1604,11 +1604,22 @@
       <c r="A103" s="7" t="n">
         <v>45484</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="4" t="n">
         <v>0.537590113285273</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4" t="n">
         <v>1.277010522178282</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.744578313253012</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.062437944408722</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1615,11 +1615,22 @@
       <c r="A104" s="7" t="n">
         <v>45485</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="4" t="n">
         <v>0.744578313253012</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4" t="n">
         <v>1.062437944408722</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.765891472868217</v>
+      </c>
+      <c r="C105" t="n">
+        <v>14.06799683419373</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1626,11 +1626,22 @@
       <c r="A105" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="4" t="n">
         <v>0.765891472868217</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>14.06799683419373</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.045646661031276</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.328199972478368</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1637,11 +1637,22 @@
       <c r="A106" s="7" t="n">
         <v>45489</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="4" t="n">
         <v>1.045646661031276</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4" t="n">
         <v>3.328199972478368</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.092921515443171</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.35232533872728</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1648,11 +1648,22 @@
       <c r="A107" s="7" t="n">
         <v>45490</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="4" t="n">
         <v>1.092921515443171</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4" t="n">
         <v>10.35232533872728</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.725865209471767</v>
+      </c>
+      <c r="C108" t="n">
+        <v>19.52845009250926</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1659,11 +1659,22 @@
       <c r="A108" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="4" t="n">
         <v>1.725865209471767</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4" t="n">
         <v>19.52845009250926</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9538461538461539</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.115267686411238</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1670,11 +1670,22 @@
       <c r="A109" s="7" t="n">
         <v>45492</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="4" t="n">
         <v>0.9538461538461539</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4" t="n">
         <v>1.115267686411238</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6715083798882682</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5898493909870324</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1681,11 +1681,22 @@
       <c r="A110" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="4" t="n">
         <v>0.6715083798882682</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4" t="n">
         <v>0.5898493909870324</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.724972497249725</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.334468839651562</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1692,11 +1692,22 @@
       <c r="A111" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="4" t="n">
         <v>0.724972497249725</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4" t="n">
         <v>1.334468839651562</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7870416875941738</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.103798652764368</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1703,11 +1703,22 @@
       <c r="A112" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="4" t="n">
         <v>0.7870416875941738</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4" t="n">
         <v>1.103798652764368</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9453707766564282</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.729423204698556</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1714,11 +1714,22 @@
       <c r="A113" s="7" t="n">
         <v>45498</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="4" t="n">
         <v>0.9453707766564282</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4" t="n">
         <v>1.729423204698556</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9657657657657658</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.34293279756188</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1725,11 +1725,22 @@
       <c r="A114" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="4" t="n">
         <v>0.9657657657657658</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4" t="n">
         <v>11.34293279756188</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7049670855774985</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9848382811848535</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1736,11 +1736,22 @@
       <c r="A115" s="7" t="n">
         <v>45502</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="4" t="n">
         <v>0.7049670855774985</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>0.9848382811848535</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8635588402501422</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.012805214711287</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1747,11 +1747,22 @@
       <c r="A116" s="7" t="n">
         <v>45503</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="4" t="n">
         <v>0.8635588402501422</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4" t="n">
         <v>1.012805214711287</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.8765759787657598</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.339804954863655</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1758,11 +1758,22 @@
       <c r="A117" s="7" t="n">
         <v>45504</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="4" t="n">
         <v>0.8765759787657598</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>1.339804954863655</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.676948051948052</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9616681404054945</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1769,11 +1769,22 @@
       <c r="A118" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="4" t="n">
         <v>0.676948051948052</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4" t="n">
         <v>0.9616681404054945</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6580912863070539</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5599624461189</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1780,11 +1780,22 @@
       <c r="A119" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="4" t="n">
         <v>0.6580912863070539</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4" t="n">
         <v>0.5599624461189</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9726584003984586</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2710967326437252</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1791,11 +1791,22 @@
       <c r="A120" s="7" t="n">
         <v>45509</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="4" t="n">
         <v>0.9726584003984586</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="4" t="n">
         <v>0.2710967326437252</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9451729351146215</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.2763417514830019</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1802,11 +1802,22 @@
       <c r="A121" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="4" t="n">
         <v>0.9451729351146215</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="4" t="n">
         <v>0.2763417514830019</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.8902102357188363</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8584524111406343</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1813,11 +1813,22 @@
       <c r="A122" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="4" t="n">
         <v>0.8902102357188363</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="4" t="n">
         <v>0.8584524111406343</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.3599914236706689</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4467089581302329</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1824,11 +1824,22 @@
       <c r="A123" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="4" t="n">
         <v>0.3599914236706689</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="4" t="n">
         <v>0.4467089581302329</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4704234122042341</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.2529293456571416</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1835,11 +1835,22 @@
       <c r="A124" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="4" t="n">
         <v>0.4704234122042341</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="4" t="n">
         <v>0.2529293456571416</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5151085930122757</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.2748694270187531</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1846,11 +1846,22 @@
       <c r="A125" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="4" t="n">
         <v>0.5151085930122757</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="4" t="n">
         <v>0.2748694270187531</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4746185852981969</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.8226782606906108</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1857,11 +1857,22 @@
       <c r="A126" s="7" t="n">
         <v>45517</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="4" t="n">
         <v>0.4746185852981969</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="4" t="n">
         <v>0.8226782606906108</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7423910881241297</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9139943799173277</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1868,11 +1868,22 @@
       <c r="A127" s="7" t="n">
         <v>45518</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="4" t="n">
         <v>0.7423910881241297</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="4" t="n">
         <v>0.9139943799173277</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6064412238325282</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5868438455363919</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1879,11 +1879,22 @@
       <c r="A128" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="4" t="n">
         <v>0.6064412238325282</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="4" t="n">
         <v>0.5868438455363919</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.8456471426028129</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.8728842749786643</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1890,11 +1890,22 @@
       <c r="A129" s="7" t="n">
         <v>45520</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="4" t="n">
         <v>0.8456471426028129</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="4" t="n">
         <v>0.8728842749786643</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.3124324324324324</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3387625845483715</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1901,11 +1901,22 @@
       <c r="A130" s="7" t="n">
         <v>45523</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="4" t="n">
         <v>0.3124324324324324</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="4" t="n">
         <v>0.3387625845483715</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5669116627374844</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.6829151570386492</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1912,11 +1912,22 @@
       <c r="A131" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="4" t="n">
         <v>0.5669116627374844</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="4" t="n">
         <v>0.6829151570386492</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7338075627105953</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.699059199640704</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1923,11 +1923,22 @@
       <c r="A132" s="7" t="n">
         <v>45525</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="4" t="n">
         <v>0.7338075627105953</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="4" t="n">
         <v>0.699059199640704</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.209612817089453</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9628054753941653</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1934,11 +1934,22 @@
       <c r="A133" s="7" t="n">
         <v>45526</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="4" t="n">
         <v>1.209612817089453</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="4" t="n">
         <v>0.9628054753941653</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7497341368309111</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.2479610979153927</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1945,11 +1945,22 @@
       <c r="A134" s="7" t="n">
         <v>45527</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="4" t="n">
         <v>0.7497341368309111</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="4" t="n">
         <v>0.2479610979153927</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.8760991207034372</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.3958359979915964</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1956,11 +1956,22 @@
       <c r="A135" s="7" t="n">
         <v>45530</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="4" t="n">
         <v>0.8760991207034372</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="4" t="n">
         <v>0.3958359979915964</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.023417172593235</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.4600112094730736</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1967,11 +1967,22 @@
       <c r="A136" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="4" t="n">
         <v>1.023417172593235</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="4" t="n">
         <v>0.4600112094730736</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.212689901697945</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5793868584849057</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1978,11 +1978,22 @@
       <c r="A137" s="7" t="n">
         <v>45532</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="4" t="n">
         <v>1.212689901697945</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="4" t="n">
         <v>0.5793868584849057</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.8612873980054397</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5237757247812895</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -1989,11 +1989,22 @@
       <c r="A138" s="7" t="n">
         <v>45533</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="4" t="n">
         <v>0.8612873980054397</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="4" t="n">
         <v>0.5237757247812895</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.176285414480588</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.8302692836936192</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2000,11 +2000,22 @@
       <c r="A139" s="7" t="n">
         <v>45534</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="4" t="n">
         <v>1.176285414480588</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="4" t="n">
         <v>0.8302692836936192</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.576456310679612</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9677548906300129</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2011,11 +2011,22 @@
       <c r="A140" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="4" t="n">
         <v>1.576456310679612</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="4" t="n">
         <v>0.9677548906300129</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.096141268803139</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4134560341897447</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2022,11 +2022,22 @@
       <c r="A141" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="4" t="n">
         <v>1.096141268803139</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="4" t="n">
         <v>0.4134560341897447</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7898089171974523</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.3436104661865289</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2033,11 +2033,22 @@
       <c r="A142" s="7" t="n">
         <v>45539</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="4" t="n">
         <v>0.7898089171974523</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="4" t="n">
         <v>0.3436104661865289</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5850307910942681</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.3743261191937252</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2044,11 +2044,22 @@
       <c r="A143" s="7" t="n">
         <v>45540</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="4" t="n">
         <v>0.5850307910942681</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="4" t="n">
         <v>0.3743261191937252</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4368036880522474</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.2463583772045096</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2055,11 +2055,22 @@
       <c r="A144" s="7" t="n">
         <v>45541</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="4" t="n">
         <v>0.4368036880522474</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="4" t="n">
         <v>0.2463583772045096</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.637089618456078</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.3714135918399766</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2066,11 +2066,22 @@
       <c r="A145" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="4" t="n">
         <v>0.637089618456078</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="4" t="n">
         <v>0.3714135918399766</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.3285714285714286</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3355507993876011</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2077,11 +2077,22 @@
       <c r="A146" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="4" t="n">
         <v>0.3285714285714286</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="4" t="n">
         <v>0.3355507993876011</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.5617505995203836</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2798995037073543</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2088,11 +2088,22 @@
       <c r="A147" s="7" t="n">
         <v>45546</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="4" t="n">
         <v>0.5617505995203836</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="4" t="n">
         <v>0.2798995037073543</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.8530534351145038</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2727021493545193</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2099,11 +2099,22 @@
       <c r="A148" s="7" t="n">
         <v>45547</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="4" t="n">
         <v>0.8530534351145038</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="4" t="n">
         <v>0.2727021493545193</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4039309936219849</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2110,11 +2110,22 @@
       <c r="A149" s="7" t="n">
         <v>45548</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="4" t="n">
         <v>0.6896551724137931</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="4" t="n">
         <v>0.4039309936219849</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.061266167460858</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.247478904616108</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2121,11 +2121,22 @@
       <c r="A150" s="7" t="n">
         <v>45551</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="4" t="n">
         <v>1.061266167460858</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="4" t="n">
         <v>1.247478904616108</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9446320054017556</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9133374716782023</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2132,11 +2132,22 @@
       <c r="A151" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="4" t="n">
         <v>0.9446320054017556</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="4" t="n">
         <v>0.9133374716782023</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7451941198643046</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9671663604498405</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2143,11 +2143,22 @@
       <c r="A152" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="4" t="n">
         <v>0.7451941198643046</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="4" t="n">
         <v>0.9671663604498405</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.8273815945625203</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.8253092161487672</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2154,11 +2154,22 @@
       <c r="A153" s="7" t="n">
         <v>45554</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="4" t="n">
         <v>0.8273815945625203</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="4" t="n">
         <v>0.8253092161487672</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9831786542923434</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.988403857441094</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2165,10 +2165,21 @@
       <c r="A154" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="4" t="n">
         <v>0.9831786542923434</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="4" t="n">
+        <v>0.988403857441094</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9831786542923434</v>
+      </c>
+      <c r="C155" t="n">
         <v>0.988403857441094</v>
       </c>
     </row>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2176,11 +2176,22 @@
       <c r="A155" s="7" t="n">
         <v>45558</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="4" t="n">
         <v>0.9831786542923434</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="4" t="n">
         <v>0.988403857441094</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.8412055780476833</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.8554626322812808</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2187,11 +2187,22 @@
       <c r="A156" s="7" t="n">
         <v>45559</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="4" t="n">
         <v>0.8412055780476833</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="4" t="n">
         <v>0.8554626322812808</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.694210786739238</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.7220450389718447</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2198,11 +2198,22 @@
       <c r="A157" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="4" t="n">
         <v>0.694210786739238</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="4" t="n">
         <v>0.7220450389718447</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.5649966147596479</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.5032566768977998</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2209,11 +2209,22 @@
       <c r="A158" s="7" t="n">
         <v>45561</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="4" t="n">
         <v>0.5649966147596479</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="4" t="n">
         <v>0.5032566768977998</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4528431148664079</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5252101341490795</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2220,11 +2220,22 @@
       <c r="A159" s="7" t="n">
         <v>45562</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="4" t="n">
         <v>0.4528431148664079</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="4" t="n">
         <v>0.5252101341490795</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.5225921521997622</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.3225928244397471</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2231,11 +2231,22 @@
       <c r="A160" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="4" t="n">
         <v>0.5225921521997622</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="4" t="n">
         <v>0.3225928244397471</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8274870615296147</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.8639262760440796</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2242,11 +2242,22 @@
       <c r="A161" s="7" t="n">
         <v>45566</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="4" t="n">
         <v>0.8274870615296147</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="4" t="n">
         <v>0.8639262760440796</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6023268112109995</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4640909408285633</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2253,11 +2253,22 @@
       <c r="A162" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="4" t="n">
         <v>0.6023268112109995</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="4" t="n">
         <v>0.4640909408285633</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9765910753474762</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.54146734482906</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2264,11 +2264,22 @@
       <c r="A163" s="7" t="n">
         <v>45568</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="4" t="n">
         <v>0.9765910753474762</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="4" t="n">
         <v>1.54146734482906</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8713692946058091</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.9346576168526014</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2275,11 +2275,22 @@
       <c r="A164" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="4" t="n">
         <v>0.8713692946058091</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="4" t="n">
         <v>0.9346576168526014</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4859359844810863</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5027221000404926</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>

--- a/pcrbbdc.xlsx
+++ b/pcrbbdc.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
@@ -2286,11 +2286,22 @@
       <c r="A165" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="4" t="n">
         <v>0.4859359844810863</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="4" t="n">
         <v>0.5027221000404926</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.5253456221198156</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.6261788908959733</v>
       </c>
     </row>
     <row r="1048559" ht="12.75" customHeight="1" s="5"/>
